--- a/biology/Médecine/Crête_du_muscle_supinateur/Crête_du_muscle_supinateur.xlsx
+++ b/biology/Médecine/Crête_du_muscle_supinateur/Crête_du_muscle_supinateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%AAte_du_muscle_supinateur</t>
+          <t>Crête_du_muscle_supinateur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La crête du muscle supinateur (ou crête supinatrice) est la crête osseuse située en arrière de la fossette située sous l'incisure radiale de l'ulna.
 La lame aponévrotique du chef ulnaire du muscle supinateur s'y insère.
